--- a/src/main/resources/jxls_templates/warehousearea.xlsx
+++ b/src/main/resources/jxls_templates/warehousearea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="人员档案表" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="D3")</t>
+          <t>jx:area(lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="rows" var="row" lastCell="D3")</t>
+          <t>jx:each(items="rows" var="row" lastCell="E3")</t>
         </r>
       </text>
     </comment>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>库区档案数据</t>
   </si>
@@ -64,6 +64,9 @@
     <t>*所属仓库</t>
   </si>
   <si>
+    <t>最大存储数量</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t>${row.cwhname}</t>
+  </si>
+  <si>
+    <t>${row.imaxcapacity}</t>
   </si>
   <si>
     <t>${row.cmemo}</t>
@@ -463,21 +469,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -604,7 +601,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,7 +631,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,28 +649,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,10 +679,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,10 +747,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,29 +1101,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="26.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="17.5545454545455" customWidth="1"/>
+    <col min="2" max="2" width="26.6636363636364" customWidth="1"/>
+    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="17.5545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.95" customHeight="1" spans="1:4">
+    <row r="1" ht="24.95" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="24.95" customHeight="1" spans="1:4">
+    <row r="2" ht="24.95" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1139,24 +1138,30 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="24.95" customHeight="1" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" ht="24.95" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/jxls_templates/warehousearea.xlsx
+++ b/src/main/resources/jxls_templates/warehousearea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="人员档案表" sheetId="1" r:id="rId1"/>
@@ -740,15 +740,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,58 +1107,59 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.5545454545455" customWidth="1"/>
-    <col min="2" max="2" width="26.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="21.9090909090909" customWidth="1"/>
-    <col min="5" max="5" width="17.5545454545455" customWidth="1"/>
+    <col min="1" max="1" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.2685185185185" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.9074074074074" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="24.95" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="24.95" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
